--- a/algorithm&optimization/lab 2 120923/результаты.xlsx
+++ b/algorithm&optimization/lab 2 120923/результаты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\bread\in-class practice\algorithm&amp;optimization\lab 2 120923\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67F188A2-95FD-42F1-8664-8E0DC6B2572B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92468267-0F4F-4B14-B9C2-CC5220EF9EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{094660A8-6C80-43B2-954F-5899911501BF}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{094660A8-6C80-43B2-954F-5899911501BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -114,37 +114,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -153,6 +123,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>MIn</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -253,6 +226,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Max</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -353,6 +329,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>Mean</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1213,15 +1192,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
+      <xdr:colOff>333376</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>553453</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>128337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1548,13 +1527,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8056D44D-AE80-4892-818D-DF2CBE3A1293}">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="95" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="95" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1562,12 +1541,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>10594</v>
       </c>
@@ -1629,7 +1608,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>24850</v>
       </c>
@@ -1661,7 +1640,7 @@
         <v>2498500</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>17442</v>
       </c>

--- a/algorithm&optimization/lab 2 120923/результаты.xlsx
+++ b/algorithm&optimization/lab 2 120923/результаты.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\bread\in-class practice\algorithm&amp;optimization\lab 2 120923\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92468267-0F4F-4B14-B9C2-CC5220EF9EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA17D9F2-ED67-4B06-AC88-E60C898D7043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{094660A8-6C80-43B2-954F-5899911501BF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>10594    41194   91794   162394  252994  363594  494194  644794  815394  1005994</t>
   </si>
@@ -45,6 +45,57 @@
   </si>
   <si>
     <t>17442   69842   157122  279185  436257  628187  854176  1115987 1411269 1741134</t>
+  </si>
+  <si>
+    <t>0.150000        -151.396988</t>
+  </si>
+  <si>
+    <t>0.200000        -187.788361</t>
+  </si>
+  <si>
+    <t>0.250000        -213.346924</t>
+  </si>
+  <si>
+    <t>0.300000        -224.629456</t>
+  </si>
+  <si>
+    <t>0.350000        -216.960068</t>
+  </si>
+  <si>
+    <t>0.400000        -183.873489</t>
+  </si>
+  <si>
+    <t>0.450000        -116.238701</t>
+  </si>
+  <si>
+    <t>0.500000        -0.829759</t>
+  </si>
+  <si>
+    <t>0.550000        182.094391</t>
+  </si>
+  <si>
+    <t>0.600000        463.107117</t>
+  </si>
+  <si>
+    <t>0.650000        891.763000</t>
+  </si>
+  <si>
+    <t>0.700000        1553.181396</t>
+  </si>
+  <si>
+    <t>0.750000        2605.152832</t>
+  </si>
+  <si>
+    <t>0.800000        4372.482910</t>
+  </si>
+  <si>
+    <t>0.850000        7634.878906</t>
+  </si>
+  <si>
+    <t>0.900000        14798.831055</t>
+  </si>
+  <si>
+    <t>0.950000        38259.179688</t>
   </si>
 </sst>
 </file>
@@ -1525,15 +1576,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8056D44D-AE80-4892-818D-DF2CBE3A1293}">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="95" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="95" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1541,12 +1592,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>10594</v>
       </c>
@@ -1608,7 +1659,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>24850</v>
       </c>
@@ -1640,7 +1691,7 @@
         <v>2498500</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>17442</v>
       </c>
@@ -1672,9 +1723,111 @@
         <v>1741134</v>
       </c>
     </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>0.05</v>
+      </c>
+      <c r="C44">
+        <v>-55.793556000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>0.1</v>
+      </c>
+      <c r="C45">
+        <v>-106.74807699999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
